--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1878403.760967019</v>
+        <v>1982583.395418091</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>257.6276659754741</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.47445699814261</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>84.69473660442864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>128.9527608181604</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>315.3882082434906</v>
       </c>
       <c r="F5" t="n">
-        <v>221.5979551933727</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>94.17546490534957</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.57906258117926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>334.3847524867062</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>303.025617961964</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>37.35932070127941</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.0230304603534</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.82891891787546</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646516</v>
       </c>
       <c r="V16" t="n">
-        <v>146.2834074964109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>89.67992556049214</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.3302385618281</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>260.4394343112834</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.9815576456783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>39.56681219551407</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>7.408064079031379</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>186.0007748420842</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>77.39507264402586</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>159.199117452887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>178.6672192220313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>277.728422991227</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3121.906610713899</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.5839474470786</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>152.0623554265558</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1707.208776888283</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.442161457809</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.442161457809</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.442161457809</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W4" t="n">
-        <v>1196.024991420848</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.024991420848</v>
+        <v>554.5033994003256</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.2324122773183</v>
+        <v>333.7108202567955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2158.017852261502</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1789.05533532109</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>1430.789636714339</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E5" t="n">
-        <v>1045.001384116095</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261502</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>725.9304417640997</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>556.9942588361928</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>406.877619423857</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>258.9645258414639</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1356.361036635887</v>
       </c>
       <c r="X7" t="n">
-        <v>1356.675339798491</v>
+        <v>1128.37148573787</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>907.5789065943394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2703.250922730625</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2350.482267460511</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.016509199431</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,19 +4883,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1097.172036790967</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1097.172036790967</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556431</v>
+        <v>869.1824858929492</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>648.3899067494191</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5537,25 +5539,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,10 +5773,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>96.85392869224921</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6174,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576786</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6561,7 +6563,7 @@
         <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024.063349920563</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C31" t="n">
-        <v>855.1271669926557</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D31" t="n">
-        <v>705.0105275803199</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E31" t="n">
-        <v>557.0974339979268</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F31" t="n">
-        <v>410.2074865000164</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>243.0113872148964</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>101.2995560570945</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.711814750802</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,10 +6718,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096656</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2036.255356141217</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1747.180129485415</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1492.495641279528</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1203.078471242567</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,16 +7426,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1030.857960751344</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>810.0653816078141</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,34 +7666,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>191.8807364711617</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>45.44677382459258</v>
       </c>
       <c r="V16" t="n">
-        <v>105.8542358274171</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>75.84421273177671</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.854235827416</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.74504007796071</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>173.4237883572461</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.85777223953414</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.75554125013261</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>71.2204003741865</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
-        <v>58.20633287440131</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>47.04243616700589</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.456051398017109</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872462.9057627071</v>
+        <v>872462.905762707</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.619783005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830042</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
@@ -26353,7 +26355,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071322</v>
+        <v>-952303.5144071323</v>
       </c>
       <c r="C6" t="n">
-        <v>376441.2313204604</v>
+        <v>376441.2313204607</v>
       </c>
       <c r="D6" t="n">
-        <v>376441.2313204604</v>
+        <v>376441.2313204607</v>
       </c>
       <c r="E6" t="n">
         <v>127300.5958999486</v>
@@ -26534,34 +26536,34 @@
         <v>452713.0577073038</v>
       </c>
       <c r="G6" t="n">
+        <v>452713.0577073037</v>
+      </c>
+      <c r="H6" t="n">
+        <v>452713.057707304</v>
+      </c>
+      <c r="I6" t="n">
         <v>452713.0577073038</v>
       </c>
-      <c r="H6" t="n">
-        <v>452713.0577073038</v>
-      </c>
-      <c r="I6" t="n">
-        <v>452713.0577073044</v>
-      </c>
       <c r="J6" t="n">
-        <v>235181.8553100263</v>
+        <v>235181.8553100266</v>
       </c>
       <c r="K6" t="n">
-        <v>452713.0577073039</v>
+        <v>452713.0577073035</v>
       </c>
       <c r="L6" t="n">
-        <v>452713.0577073038</v>
+        <v>452713.0577073036</v>
       </c>
       <c r="M6" t="n">
-        <v>367658.0297717915</v>
+        <v>367658.0297717918</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073039</v>
+        <v>452713.0577073037</v>
       </c>
       <c r="O6" t="n">
-        <v>452713.0577073038</v>
+        <v>452713.0577073037</v>
       </c>
       <c r="P6" t="n">
-        <v>452713.0577073039</v>
+        <v>452713.0577073037</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>125.1061756880064</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27436,13 +27438,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>235.2778014719923</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.65768380540945</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60.81626451328145</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>66.54216182877121</v>
       </c>
       <c r="F5" t="n">
-        <v>185.2780905483388</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>51.24558311758167</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0055907709155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20.29828913397671</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>24.72664050817087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>214.7783226225486</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>161.5616228917414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447124</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175677</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32722,7 +32724,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236508</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P39" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>440.9755796648383</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>432.0572943778175</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35889,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1982583.395418091</v>
+        <v>1978570.785404098</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257.6276659754741</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.69473660442864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785997</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>315.3882082434906</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.6301673233138</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>94.17546490534957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.053000379424</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>334.3847524867062</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>37.35932070127941</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>137.3021949834108</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.82891891787546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814947</v>
       </c>
       <c r="U16" t="n">
-        <v>240.7377005646516</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.67992556049214</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>3.006892987834567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>113.0992099793449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>39.19314274110825</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>39.56681219551407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.4289331391115</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4336,46 +4336,46 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758595</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
@@ -4415,10 +4415,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>152.0623554265558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335304</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>782.492950298343</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003256</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.7108202567955</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1908.990616856006</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.724918249256</v>
+        <v>1396.478739875896</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1010.690487277652</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.9304417640997</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>556.9942588361928</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>406.877619423857</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>258.9645258414639</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672848</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635887</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.37148573787</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943394</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1955.701599376001</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1955.701599376001</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351813</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.701599376001</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4883,13 +4883,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1097.172036790967</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.172036790967</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>869.1824858929492</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.3899067494191</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>2817.800993781637</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>2817.800993781637</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>3445.398957336244</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7594328861248</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458823</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.29168600076</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.607197794873</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.190027757912</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X16" t="n">
-        <v>962.2004768598947</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.4078977163646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>264.0500279773693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>96.85392869224921</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>991.7436897307817</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C31" t="n">
-        <v>822.8075068028749</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D31" t="n">
-        <v>672.6908673905391</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>524.777773808146</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704551</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y31" t="n">
-        <v>1173.392154561021</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.805592491204</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.121104285317</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7356,7 +7356,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9.131767663158399</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>191.8807364711617</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>31.71340154579357</v>
       </c>
       <c r="U16" t="n">
-        <v>45.44677382459258</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>75.84421273177671</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.75554125013261</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.977079716</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26447,10 +26447,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071323</v>
+        <v>-952303.5144071324</v>
       </c>
       <c r="C6" t="n">
         <v>376441.2313204607</v>
       </c>
       <c r="D6" t="n">
-        <v>376441.2313204607</v>
+        <v>376441.23132046</v>
       </c>
       <c r="E6" t="n">
-        <v>127300.5958999486</v>
+        <v>126953.2166455917</v>
       </c>
       <c r="F6" t="n">
-        <v>452713.0577073038</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="G6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="H6" t="n">
-        <v>452713.057707304</v>
+        <v>452365.6784529468</v>
       </c>
       <c r="I6" t="n">
-        <v>452713.0577073038</v>
+        <v>452365.6784529467</v>
       </c>
       <c r="J6" t="n">
-        <v>235181.8553100266</v>
+        <v>234834.4760556695</v>
       </c>
       <c r="K6" t="n">
-        <v>452713.0577073035</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="L6" t="n">
-        <v>452713.0577073036</v>
+        <v>452365.6784529468</v>
       </c>
       <c r="M6" t="n">
-        <v>367658.0297717918</v>
+        <v>367310.6505174349</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529468</v>
       </c>
       <c r="O6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529468</v>
       </c>
       <c r="P6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529468</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.1061756880064</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>11.65768380540945</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>66.54216182877121</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.2458784183976</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24558311758167</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>73.08464294440401</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.29828913397671</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>331.8898480104181</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>214.7783226225486</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447124</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.0546826043645</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>165.2255134509763</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648383</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244903</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>31.25110603664601</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1978570.785404098</v>
+        <v>1980331.315706883</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>181.1375494785997</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.6301673233138</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>247.0916244150701</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.053000379424</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159602</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699488</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>137.3021949834108</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>230.4433519268051</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>39.19314274110825</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>2078.679253373407</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>3253.211506488042</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>2998.527018282155</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>2709.109848245194</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>2481.120297347177</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>2260.327718203647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C5" t="n">
-        <v>1754.744438482647</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D5" t="n">
-        <v>1396.478739875896</v>
+        <v>1527.9462233842</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.690487277652</v>
+        <v>1142.157970785956</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>731.1720659963487</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>316.0996158413452</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4670,28 +4670,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1746.43293154362</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1457.015761506659</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1229.026210608642</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>188.339194630123</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4944,34 +4944,34 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,16 +4983,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
         <v>1854.900232967364</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,34 +5764,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408906</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>484.8112968429803</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,16 +7262,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7417,19 +7417,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-6.652542196183662e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9.131767663158399</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>55.74112246243902</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>109.4223302771041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872462.905762707</v>
+        <v>872462.9057627071</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
@@ -26346,13 +26346,13 @@
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830044</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314492</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314486</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26432,13 +26432,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26450,7 +26450,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071324</v>
+        <v>-952303.5144071321</v>
       </c>
       <c r="C6" t="n">
-        <v>376441.2313204607</v>
+        <v>376441.2313204606</v>
       </c>
       <c r="D6" t="n">
-        <v>376441.23132046</v>
+        <v>376441.2313204602</v>
       </c>
       <c r="E6" t="n">
-        <v>126953.2166455917</v>
+        <v>127265.8579745127</v>
       </c>
       <c r="F6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.319781868</v>
       </c>
       <c r="G6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="H6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="I6" t="n">
-        <v>452365.6784529467</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="J6" t="n">
-        <v>234834.4760556695</v>
+        <v>235147.1173845908</v>
       </c>
       <c r="K6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="L6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="M6" t="n">
-        <v>367310.6505174349</v>
+        <v>367623.2918463561</v>
       </c>
       <c r="N6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="O6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="P6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.319781868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>105.0742887270132</v>
+        <v>214.5414662356954</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.2458784183976</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>47.51613997225039</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>73.08464294440401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104181</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
